--- a/src/main/webapp/resources/excel/Template_CAPNHAT_SITE_CSHT.xlsx
+++ b/src/main/webapp/resources/excel/Template_CAPNHAT_SITE_CSHT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trunglk\Project\RIMS_GIT\RIMS_GITLAB_HUU\src\main\webapp\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\RIMS\source\RIMS\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4275E039-A680-4A75-BA61-E7C24A6EBE26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58C7D32D-FCDE-4A57-9FA4-779FF407401F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" tabRatio="331" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,33 +29,6 @@
     <author>Z</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Z:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-BTS thì ghi là BTS.
-NodeB thì ghi là NodeB.
-EnodeB thì ghi là EnodeB
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -88,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="11">
   <si>
     <t>Mã Trạm Dự án</t>
   </si>
@@ -102,9 +75,6 @@
     <t>Tên BSC/RNC</t>
   </si>
   <si>
-    <t>Loại NE</t>
-  </si>
-  <si>
     <t>BTS</t>
   </si>
   <si>
@@ -121,13 +91,16 @@
   </si>
   <si>
     <t>CSHT_NTN_0001</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +145,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,7 +158,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,21 +222,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -274,13 +246,16 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,10 +609,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -646,17 +621,17 @@
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -667,40 +642,37 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -715,7 +687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
